--- a/数据整理/stocks/港股/01385-上海复旦微电子集团股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01385-上海复旦微电子集团股份有限公司.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1069,56 +1121,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/港股/01385-上海复旦微电子集团股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01385-上海复旦微电子集团股份有限公司.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.54</v>
       </c>
     </row>
@@ -498,6 +515,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5646</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011556</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
